--- a/T4_8Tables.xlsx
+++ b/T4_8Tables.xlsx
@@ -53,13 +53,13 @@
     <t>x</t>
   </si>
   <si>
-    <t>S1+ = (reset)'S1(S0)' + (reset)'(S1)'S0 + (reset)'(T8)'T4(S0)'</t>
-  </si>
-  <si>
     <t>S0+ = (reset)'(S1)'S0 + (reset)'(T8)'T4(S0)' + (reset)'T8(T4)'(S0)'</t>
   </si>
   <si>
     <t>done = (T8)'(T4)'(S0)'(S1)' + T8T4(S0)'(S1)'</t>
+  </si>
+  <si>
+    <t>S1+ = S1(S0)' + (S1)'S0 + (T8)'T4(S0)'</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="D4:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,17 +685,17 @@
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
